--- a/word/Table2.xlsx
+++ b/word/Table2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="10470"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17715" windowHeight="10470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,82 +24,290 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>E1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Event 1 Acute</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Apr 2005 – Jun 2006</t>
-  </si>
-  <si>
-    <t>E1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Event 1 Chronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jul 2006 – Jan 2008</t>
-  </si>
-  <si>
-    <t>NI1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non-Impact 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 2008 – Aug 2012</t>
-  </si>
-  <si>
-    <t>E2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Event 2 Acute</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sep 2012 – Dec 2013</t>
-  </si>
-  <si>
-    <t>E2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Event 2 Chronic</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jan 2014 - Nov 2014</t>
-  </si>
-  <si>
-    <t>NI2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Non-Impact 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dec 2014 – Aug 2015</t>
-  </si>
-  <si>
-    <t>Time period</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Approximate dates</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">TABLE 2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Time periods evaluated for water quality changes at monitoring stations.  See Figure 2 for a graphical depiction.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+  <si>
+    <t>Stations</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>St. Dev.</t>
+  </si>
+  <si>
+    <r>
+      <t>Chl-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sat</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>−</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/NO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>−</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TABLE 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Site summaries of water quality (hourly) and nutrient (monthly) observations from 2005 to 2015.  Units are mg P/L for orthophosphate or mg N/L for ammonium, or nitrate/nitrite, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>g/L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">for chlorophyll </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, percent for DO</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, and psu for salinity. Nutrient summaries are based on maximum likelihood estimates for left-censored data and summary values less than the detection limit (0.01 mg/L) are estimated accordingly.  Sites are BC: Bayou Cumbest, BL: Bangs Lake, BN: Bangs North (no water quality data), and PC: Point aux Chenes.</t>
     </r>
   </si>
 </sst>
@@ -107,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +326,73 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -137,7 +412,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -149,27 +424,94 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -488,106 +830,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>19</v>
+    <row r="1" spans="1:6" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7.94</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.01</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F4" s="4">
+        <v>36.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>8.25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.43</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.44</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.98</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.17</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9.39</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="F6" s="4">
+        <v>33.950000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>10.82</v>
+      </c>
+      <c r="C7" s="12">
+        <v>6.69</v>
+      </c>
+      <c r="D7" s="12">
+        <v>13.76</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="F7" s="12">
+        <v>47.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>92.05</v>
+      </c>
+      <c r="C9" s="4">
+        <v>93.1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>297.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>97.08</v>
+      </c>
+      <c r="C10" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>15.52</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>221.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13">
+        <v>80.12</v>
+      </c>
+      <c r="C11" s="13">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="D11" s="13">
+        <v>19.11</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.8</v>
+      </c>
+      <c r="F11" s="13">
+        <v>221.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="F23" s="4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8.06</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.22</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="13">
+        <v>7.26</v>
+      </c>
+      <c r="C25" s="13">
+        <v>7.3</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0.46</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F25" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F30" s="12">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>22.02</v>
+      </c>
+      <c r="C32" s="4">
+        <v>22.4</v>
+      </c>
+      <c r="D32" s="4">
+        <v>5.49</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="4">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="C33" s="4">
+        <v>24.3</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5.37</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F33" s="4">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="13">
+        <v>17.22</v>
+      </c>
+      <c r="C34" s="13">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="D34" s="13">
+        <v>7.86</v>
+      </c>
+      <c r="E34" s="13">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
+      <c r="F34" s="13">
+        <v>33.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
